--- a/raspis.xlsx
+++ b/raspis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel\PycharmProjects\pythonraspianie22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,30 +24,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>математика</t>
-  </si>
-  <si>
-    <t>физика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">химия </t>
-  </si>
-  <si>
-    <t>биология</t>
-  </si>
-  <si>
-    <t>русский</t>
-  </si>
-  <si>
-    <t>физкультура</t>
-  </si>
-  <si>
-    <t>английский</t>
-  </si>
-  <si>
-    <t>труд</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">08:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 </t>
+  </si>
+  <si>
+    <t>Ин. Язык</t>
+  </si>
+  <si>
+    <t>Бел. Язык</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Обществоведение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Химия </t>
+  </si>
+  <si>
+    <t>Бел. Лит</t>
+  </si>
+  <si>
+    <t>Русск. Лит</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Русск. Язык</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>ЧЗС</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Физ. Культура</t>
+  </si>
+  <si>
+    <t>ДМП</t>
+  </si>
+  <si>
+    <t>Астрономия</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -86,7 +131,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -367,64 +414,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.34027777777777773</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>